--- a/wrong.xlsx
+++ b/wrong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C820"/>
+  <dimension ref="A1:C717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>143559</v>
+        <v>96000</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>40870</v>
+        <v>143559</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>139266</v>
+        <v>40870</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>25439</v>
+        <v>139266</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>98497</v>
+        <v>25439</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4764</v>
+        <v>98497</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>153890</v>
+        <v>147655</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>136141</v>
+        <v>4764</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>72280</v>
+        <v>153890</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>64324</v>
+        <v>136141</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>97204</v>
+        <v>72280</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>126930</v>
+        <v>77693</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>84460</v>
+        <v>143066</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>153941</v>
+        <v>34388</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>123130</v>
+        <v>78906</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>120005</v>
+        <v>84460</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>129717</v>
+        <v>153941</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>61432</v>
+        <v>123130</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>122815</v>
+        <v>129717</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>90939</v>
+        <v>61432</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>87644</v>
+        <v>122815</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>148516</v>
+        <v>87644</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>60549</v>
+        <v>148516</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>115769</v>
+        <v>60549</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>62291</v>
+        <v>115769</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>78157</v>
+        <v>62291</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>152669</v>
+        <v>78157</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>6750</v>
+        <v>95333</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>113026</v>
+        <v>152669</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>104782</v>
+        <v>6750</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>106584</v>
+        <v>159179</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>159179</v>
+        <v>145944</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>145944</v>
+        <v>31199</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>107000</v>
+        <v>53624</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>115200</v>
+        <v>95306</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>53624</v>
+        <v>83302</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>95306</v>
+        <v>63431</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>12290</v>
+        <v>34957</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>52817</v>
+        <v>12290</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>140898</v>
+        <v>52817</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>40952</v>
+        <v>7351</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>7351</v>
+        <v>50961</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>50961</v>
+        <v>36079</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>39236</v>
+        <v>2054</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>144772</v>
+        <v>143783</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>16163</v>
+        <v>49021</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>36079</v>
+        <v>8518</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>2054</v>
+        <v>45909</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>123643</v>
+        <v>9991</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>143783</v>
+        <v>30176</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>71405</v>
+        <v>133761</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>49021</v>
+        <v>10832</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>154533</v>
+        <v>135969</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45909</v>
+        <v>131207</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>9991</v>
+        <v>56157</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>30176</v>
+        <v>47653</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>133761</v>
+        <v>123274</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>10832</v>
+        <v>84117</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>135969</v>
+        <v>130564</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>131207</v>
+        <v>133974</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>56157</v>
+        <v>118356</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>47653</v>
+        <v>64673</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>123274</v>
+        <v>143520</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>37739</v>
+        <v>116884</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>84117</v>
+        <v>22079</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>130564</v>
+        <v>84172</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>133974</v>
+        <v>26662</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>64673</v>
+        <v>90606</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>143520</v>
+        <v>79731</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>116884</v>
+        <v>139394</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>84172</v>
+        <v>40270</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>35109</v>
+        <v>49556</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>90606</v>
+        <v>152687</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>79731</v>
+        <v>3192</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>139394</v>
+        <v>29304</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>40270</v>
+        <v>57787</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>49556</v>
+        <v>80160</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>152687</v>
+        <v>4203</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>3192</v>
+        <v>104140</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>29012</v>
+        <v>98005</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>29304</v>
+        <v>27082</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>43451</v>
+        <v>108799</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>127332</v>
+        <v>50779</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>57787</v>
+        <v>128478</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>118202</v>
+        <v>97408</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>104140</v>
+        <v>15192</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>27082</v>
+        <v>58538</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>67808</v>
+        <v>11059</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>108799</v>
+        <v>75844</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>850</v>
+        <v>96405</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>50779</v>
+        <v>97163</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>84855</v>
+        <v>127775</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>128478</v>
+        <v>38190</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>41861</v>
+        <v>38766</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>97408</v>
+        <v>130119</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>15192</v>
+        <v>50327</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>58538</v>
+        <v>127028</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>11059</v>
+        <v>39389</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>33196</v>
+        <v>4415</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>75844</v>
+        <v>138538</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>108735</v>
+        <v>99876</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>96405</v>
+        <v>65048</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>97163</v>
+        <v>54865</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>61679</v>
+        <v>103243</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>38190</v>
+        <v>133910</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>38766</v>
+        <v>101668</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>130119</v>
+        <v>55046</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>50327</v>
+        <v>139381</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>127028</v>
+        <v>17429</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>70846</v>
+        <v>65142</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>39389</v>
+        <v>55892</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>6921</v>
+        <v>154670</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>17056</v>
+        <v>20241</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4415</v>
+        <v>133601</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>37595</v>
+        <v>6302</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>138538</v>
+        <v>13180</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>117341</v>
+        <v>46935</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>65048</v>
+        <v>102667</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>54865</v>
+        <v>93952</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>103243</v>
+        <v>76568</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>56304</v>
+        <v>151041</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>133910</v>
+        <v>107710</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>101668</v>
+        <v>70254</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>55046</v>
+        <v>58073</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>139381</v>
+        <v>58611</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>65142</v>
+        <v>36740</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>55892</v>
+        <v>138873</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>109917</v>
+        <v>18947</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>20241</v>
+        <v>101901</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>48744</v>
+        <v>152243</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>104834</v>
+        <v>19867</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>133601</v>
+        <v>68917</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>13180</v>
+        <v>101254</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>46935</v>
+        <v>9174</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>93952</v>
+        <v>112824</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>76568</v>
+        <v>131385</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>151041</v>
+        <v>18730</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>107710</v>
+        <v>50929</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>115371</v>
+        <v>30565</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>58073</v>
+        <v>104671</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>58611</v>
+        <v>117921</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>36740</v>
+        <v>122572</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>138873</v>
+        <v>85008</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>18947</v>
+        <v>7359</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>80434</v>
+        <v>2722</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>98894</v>
+        <v>82101</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>43888</v>
+        <v>103740</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>68917</v>
+        <v>136708</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>101254</v>
+        <v>85083</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>9174</v>
+        <v>41967</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>112824</v>
+        <v>72520</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>131385</v>
+        <v>153573</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>18730</v>
+        <v>42087</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>18775</v>
+        <v>130517</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>30565</v>
+        <v>70280</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>118641</v>
+        <v>136741</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>117921</v>
+        <v>87470</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>137212</v>
+        <v>138365</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4121</v>
+        <v>144213</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>122572</v>
+        <v>144323</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>85008</v>
+        <v>114060</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>103166</v>
+        <v>5696</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>107894</v>
+        <v>25079</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>50405</v>
+        <v>39785</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>2041</v>
+        <v>132404</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>82101</v>
+        <v>68895</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>149971</v>
+        <v>72133</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>60769</v>
+        <v>31008</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>103740</v>
+        <v>13135</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>136708</v>
+        <v>45773</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>85083</v>
+        <v>923</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>20115</v>
+        <v>9180</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>41967</v>
+        <v>29720</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>72520</v>
+        <v>8823</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>153573</v>
+        <v>156348</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>136092</v>
+        <v>119658</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>18824</v>
+        <v>142927</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>42087</v>
+        <v>6887</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>130517</v>
+        <v>67867</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>70280</v>
+        <v>140725</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>73895</v>
+        <v>47190</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>114618</v>
+        <v>118820</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>136741</v>
+        <v>96001</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>118249</v>
+        <v>95077</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>87520</v>
+        <v>96154</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>144213</v>
+        <v>83038</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>144323</v>
+        <v>960</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>10325</v>
+        <v>34966</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5696</v>
+        <v>96379</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>147824</v>
+        <v>25654</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>39785</v>
+        <v>92610</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>132404</v>
+        <v>111863</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>68895</v>
+        <v>130058</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>72133</v>
+        <v>108487</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>145389</v>
+        <v>121305</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>31008</v>
+        <v>72265</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>13135</v>
+        <v>52078</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>45773</v>
+        <v>59326</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>923</v>
+        <v>8426</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>9180</v>
+        <v>98739</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>29720</v>
+        <v>7419</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>144917</v>
+        <v>9600</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>53543</v>
+        <v>20927</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>36346</v>
+        <v>54296</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>8823</v>
+        <v>57008</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4499</v>
+        <v>93441</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>156348</v>
+        <v>121097</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>142927</v>
+        <v>106370</v>
       </c>
       <c r="B219" t="n">
         <v>1</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>6887</v>
+        <v>147980</v>
       </c>
       <c r="B220" t="n">
         <v>1</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>6395</v>
+        <v>60012</v>
       </c>
       <c r="B221" t="n">
         <v>1</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>67867</v>
+        <v>37710</v>
       </c>
       <c r="B222" t="n">
         <v>1</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>140725</v>
+        <v>83336</v>
       </c>
       <c r="B223" t="n">
         <v>1</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>47190</v>
+        <v>85024</v>
       </c>
       <c r="B224" t="n">
         <v>1</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>118820</v>
+        <v>91861</v>
       </c>
       <c r="B225" t="n">
         <v>1</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>96001</v>
+        <v>68832</v>
       </c>
       <c r="B226" t="n">
         <v>1</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>96154</v>
+        <v>46333</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>83038</v>
+        <v>134271</v>
       </c>
       <c r="B228" t="n">
         <v>1</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>34966</v>
+        <v>20245</v>
       </c>
       <c r="B229" t="n">
         <v>1</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>96379</v>
+        <v>155907</v>
       </c>
       <c r="B230" t="n">
         <v>1</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>25654</v>
+        <v>24791</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>16574</v>
+        <v>146815</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>108487</v>
+        <v>71114</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>121305</v>
+        <v>121033</v>
       </c>
       <c r="B234" t="n">
         <v>1</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>72265</v>
+        <v>147627</v>
       </c>
       <c r="B235" t="n">
         <v>1</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>67460</v>
+        <v>52825</v>
       </c>
       <c r="B236" t="n">
         <v>1</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>70952</v>
+        <v>138432</v>
       </c>
       <c r="B237" t="n">
         <v>1</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>25150</v>
+        <v>136211</v>
       </c>
       <c r="B238" t="n">
         <v>1</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>51790</v>
+        <v>45359</v>
       </c>
       <c r="B239" t="n">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>52078</v>
+        <v>114556</v>
       </c>
       <c r="B240" t="n">
         <v>1</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>59326</v>
+        <v>49016</v>
       </c>
       <c r="B241" t="n">
         <v>1</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>98739</v>
+        <v>71519</v>
       </c>
       <c r="B242" t="n">
         <v>1</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>9600</v>
+        <v>79839</v>
       </c>
       <c r="B243" t="n">
         <v>1</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>108131</v>
+        <v>61736</v>
       </c>
       <c r="B244" t="n">
         <v>1</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>20927</v>
+        <v>87248</v>
       </c>
       <c r="B245" t="n">
         <v>1</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>54296</v>
+        <v>74719</v>
       </c>
       <c r="B246" t="n">
         <v>1</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>147701</v>
+        <v>127852</v>
       </c>
       <c r="B247" t="n">
         <v>1</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>57008</v>
+        <v>94213</v>
       </c>
       <c r="B248" t="n">
         <v>1</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>93441</v>
+        <v>112323</v>
       </c>
       <c r="B249" t="n">
         <v>1</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>121097</v>
+        <v>46836</v>
       </c>
       <c r="B250" t="n">
         <v>1</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>76493</v>
+        <v>46800</v>
       </c>
       <c r="B251" t="n">
         <v>1</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>131283</v>
+        <v>98535</v>
       </c>
       <c r="B252" t="n">
         <v>1</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>106370</v>
+        <v>28061</v>
       </c>
       <c r="B253" t="n">
         <v>1</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>147980</v>
+        <v>66392</v>
       </c>
       <c r="B254" t="n">
         <v>1</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>60012</v>
+        <v>25660</v>
       </c>
       <c r="B255" t="n">
         <v>1</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>37710</v>
+        <v>106758</v>
       </c>
       <c r="B256" t="n">
         <v>1</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>83336</v>
+        <v>89261</v>
       </c>
       <c r="B257" t="n">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>85024</v>
+        <v>37207</v>
       </c>
       <c r="B258" t="n">
         <v>1</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>68832</v>
+        <v>93355</v>
       </c>
       <c r="B259" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>134271</v>
+        <v>144971</v>
       </c>
       <c r="B260" t="n">
         <v>1</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>131671</v>
+        <v>79806</v>
       </c>
       <c r="B261" t="n">
         <v>1</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>20245</v>
+        <v>157653</v>
       </c>
       <c r="B262" t="n">
         <v>1</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>24791</v>
+        <v>81923</v>
       </c>
       <c r="B263" t="n">
         <v>1</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>146815</v>
+        <v>139490</v>
       </c>
       <c r="B264" t="n">
         <v>1</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>71114</v>
+        <v>24074</v>
       </c>
       <c r="B265" t="n">
         <v>1</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>30717</v>
+        <v>110796</v>
       </c>
       <c r="B266" t="n">
         <v>1</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>121033</v>
+        <v>153169</v>
       </c>
       <c r="B267" t="n">
         <v>1</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>157574</v>
+        <v>5061</v>
       </c>
       <c r="B268" t="n">
         <v>1</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>147627</v>
+        <v>416</v>
       </c>
       <c r="B269" t="n">
         <v>1</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>40724</v>
+        <v>89314</v>
       </c>
       <c r="B270" t="n">
         <v>1</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>52825</v>
+        <v>33624</v>
       </c>
       <c r="B271" t="n">
         <v>1</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>27731</v>
+        <v>150495</v>
       </c>
       <c r="B272" t="n">
         <v>1</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>8547</v>
+        <v>93853</v>
       </c>
       <c r="B273" t="n">
         <v>1</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>45359</v>
+        <v>144015</v>
       </c>
       <c r="B274" t="n">
         <v>1</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>114556</v>
+        <v>42578</v>
       </c>
       <c r="B275" t="n">
         <v>1</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>104456</v>
+        <v>101071</v>
       </c>
       <c r="B276" t="n">
         <v>1</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>49016</v>
+        <v>55667</v>
       </c>
       <c r="B277" t="n">
         <v>1</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>71519</v>
+        <v>153724</v>
       </c>
       <c r="B278" t="n">
         <v>1</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>137681</v>
+        <v>83831</v>
       </c>
       <c r="B279" t="n">
         <v>1</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>87248</v>
+        <v>77658</v>
       </c>
       <c r="B280" t="n">
         <v>1</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>74719</v>
+        <v>88267</v>
       </c>
       <c r="B281" t="n">
         <v>1</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>127852</v>
+        <v>51263</v>
       </c>
       <c r="B282" t="n">
         <v>1</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>94213</v>
+        <v>61689</v>
       </c>
       <c r="B283" t="n">
         <v>1</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>156174</v>
+        <v>128159</v>
       </c>
       <c r="B284" t="n">
         <v>1</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>112323</v>
+        <v>49908</v>
       </c>
       <c r="B285" t="n">
         <v>1</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>46836</v>
+        <v>55369</v>
       </c>
       <c r="B286" t="n">
         <v>1</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>142138</v>
+        <v>146166</v>
       </c>
       <c r="B287" t="n">
         <v>1</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>28061</v>
+        <v>126286</v>
       </c>
       <c r="B288" t="n">
         <v>1</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>70615</v>
+        <v>154509</v>
       </c>
       <c r="B289" t="n">
         <v>1</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>25660</v>
+        <v>105498</v>
       </c>
       <c r="B290" t="n">
         <v>1</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>89261</v>
+        <v>107270</v>
       </c>
       <c r="B291" t="n">
         <v>1</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>135349</v>
+        <v>73593</v>
       </c>
       <c r="B292" t="n">
         <v>1</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>37207</v>
+        <v>43285</v>
       </c>
       <c r="B293" t="n">
         <v>1</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>93355</v>
+        <v>35055</v>
       </c>
       <c r="B294" t="n">
         <v>1</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>79806</v>
+        <v>102830</v>
       </c>
       <c r="B295" t="n">
         <v>1</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>157653</v>
+        <v>102951</v>
       </c>
       <c r="B296" t="n">
         <v>1</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>88663</v>
+        <v>111931</v>
       </c>
       <c r="B297" t="n">
         <v>1</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>81923</v>
+        <v>66002</v>
       </c>
       <c r="B298" t="n">
         <v>1</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>24074</v>
+        <v>53988</v>
       </c>
       <c r="B299" t="n">
         <v>1</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>70323</v>
+        <v>1562</v>
       </c>
       <c r="B300" t="n">
         <v>1</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>2979</v>
+        <v>89221</v>
       </c>
       <c r="B301" t="n">
         <v>1</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>33699</v>
+        <v>154692</v>
       </c>
       <c r="B302" t="n">
         <v>1</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>31806</v>
+        <v>35041</v>
       </c>
       <c r="B303" t="n">
         <v>1</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>153169</v>
+        <v>159288</v>
       </c>
       <c r="B304" t="n">
         <v>1</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>5061</v>
+        <v>54151</v>
       </c>
       <c r="B305" t="n">
         <v>1</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>416</v>
+        <v>35278</v>
       </c>
       <c r="B306" t="n">
         <v>1</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>33624</v>
+        <v>26028</v>
       </c>
       <c r="B307" t="n">
         <v>1</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>150495</v>
+        <v>101711</v>
       </c>
       <c r="B308" t="n">
         <v>1</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>13720</v>
+        <v>53178</v>
       </c>
       <c r="B309" t="n">
         <v>1</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>39580</v>
+        <v>103256</v>
       </c>
       <c r="B310" t="n">
         <v>1</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>144015</v>
+        <v>45111</v>
       </c>
       <c r="B311" t="n">
         <v>1</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>42578</v>
+        <v>140931</v>
       </c>
       <c r="B312" t="n">
         <v>1</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>101071</v>
+        <v>127458</v>
       </c>
       <c r="B313" t="n">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>55566</v>
+        <v>61479</v>
       </c>
       <c r="B314" t="n">
         <v>1</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>55667</v>
+        <v>82679</v>
       </c>
       <c r="B315" t="n">
         <v>1</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>153724</v>
+        <v>31860</v>
       </c>
       <c r="B316" t="n">
         <v>1</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>132870</v>
+        <v>143847</v>
       </c>
       <c r="B317" t="n">
         <v>1</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>77658</v>
+        <v>16798</v>
       </c>
       <c r="B318" t="n">
         <v>1</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>32650</v>
+        <v>51057</v>
       </c>
       <c r="B319" t="n">
         <v>1</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>51263</v>
+        <v>47469</v>
       </c>
       <c r="B320" t="n">
         <v>1</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>61689</v>
+        <v>8712</v>
       </c>
       <c r="B321" t="n">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>75824</v>
+        <v>59245</v>
       </c>
       <c r="B322" t="n">
         <v>1</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>128159</v>
+        <v>122042</v>
       </c>
       <c r="B323" t="n">
         <v>1</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>148560</v>
+        <v>100974</v>
       </c>
       <c r="B324" t="n">
         <v>1</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>49908</v>
+        <v>135526</v>
       </c>
       <c r="B325" t="n">
         <v>1</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>55369</v>
+        <v>21436</v>
       </c>
       <c r="B326" t="n">
         <v>1</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>53613</v>
+        <v>23970</v>
       </c>
       <c r="B327" t="n">
         <v>1</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>150369</v>
+        <v>149385</v>
       </c>
       <c r="B328" t="n">
         <v>1</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>56721</v>
+        <v>138604</v>
       </c>
       <c r="B329" t="n">
         <v>1</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>146166</v>
+        <v>121861</v>
       </c>
       <c r="B330" t="n">
         <v>1</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>126286</v>
+        <v>15989</v>
       </c>
       <c r="B331" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>77272</v>
+        <v>24479</v>
       </c>
       <c r="B332" t="n">
         <v>1</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>105498</v>
+        <v>21671</v>
       </c>
       <c r="B333" t="n">
         <v>1</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>107270</v>
+        <v>110405</v>
       </c>
       <c r="B334" t="n">
         <v>1</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>103043</v>
+        <v>105614</v>
       </c>
       <c r="B335" t="n">
         <v>1</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>73593</v>
+        <v>152384</v>
       </c>
       <c r="B336" t="n">
         <v>1</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>107443</v>
+        <v>63849</v>
       </c>
       <c r="B337" t="n">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>102951</v>
+        <v>157726</v>
       </c>
       <c r="B338" t="n">
         <v>1</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>111931</v>
+        <v>83671</v>
       </c>
       <c r="B339" t="n">
         <v>1</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>66002</v>
+        <v>69255</v>
       </c>
       <c r="B340" t="n">
         <v>1</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>31852</v>
+        <v>19193</v>
       </c>
       <c r="B341" t="n">
         <v>1</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>53988</v>
+        <v>96749</v>
       </c>
       <c r="B342" t="n">
         <v>1</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>1562</v>
+        <v>71147</v>
       </c>
       <c r="B343" t="n">
         <v>1</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>89221</v>
+        <v>155389</v>
       </c>
       <c r="B344" t="n">
         <v>1</v>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>154692</v>
+        <v>76585</v>
       </c>
       <c r="B345" t="n">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>35041</v>
+        <v>68394</v>
       </c>
       <c r="B346" t="n">
         <v>1</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>159288</v>
+        <v>128153</v>
       </c>
       <c r="B347" t="n">
         <v>1</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>54151</v>
+        <v>106031</v>
       </c>
       <c r="B348" t="n">
         <v>1</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>35278</v>
+        <v>28907</v>
       </c>
       <c r="B349" t="n">
         <v>1</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>26028</v>
+        <v>170</v>
       </c>
       <c r="B350" t="n">
         <v>1</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>105638</v>
+        <v>14984</v>
       </c>
       <c r="B351" t="n">
         <v>1</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>101711</v>
+        <v>64815</v>
       </c>
       <c r="B352" t="n">
         <v>1</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>20740</v>
+        <v>31070</v>
       </c>
       <c r="B353" t="n">
         <v>1</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>103256</v>
+        <v>48322</v>
       </c>
       <c r="B354" t="n">
         <v>1</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>45111</v>
+        <v>110743</v>
       </c>
       <c r="B355" t="n">
         <v>1</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>140931</v>
+        <v>58191</v>
       </c>
       <c r="B356" t="n">
         <v>1</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>77462</v>
+        <v>32377</v>
       </c>
       <c r="B357" t="n">
         <v>1</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>6684</v>
+        <v>40564</v>
       </c>
       <c r="B358" t="n">
         <v>1</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>131326</v>
+        <v>11642</v>
       </c>
       <c r="B359" t="n">
         <v>1</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>31860</v>
+        <v>64801</v>
       </c>
       <c r="B360" t="n">
         <v>1</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>52906</v>
+        <v>23942</v>
       </c>
       <c r="B361" t="n">
         <v>1</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>143847</v>
+        <v>113801</v>
       </c>
       <c r="B362" t="n">
         <v>1</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>51057</v>
+        <v>25864</v>
       </c>
       <c r="B363" t="n">
         <v>1</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>47469</v>
+        <v>157441</v>
       </c>
       <c r="B364" t="n">
         <v>1</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>59245</v>
+        <v>50890</v>
       </c>
       <c r="B365" t="n">
         <v>1</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>122042</v>
+        <v>9555</v>
       </c>
       <c r="B366" t="n">
         <v>1</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>100974</v>
+        <v>119751</v>
       </c>
       <c r="B367" t="n">
         <v>1</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>135526</v>
+        <v>107701</v>
       </c>
       <c r="B368" t="n">
         <v>1</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>21436</v>
+        <v>50547</v>
       </c>
       <c r="B369" t="n">
         <v>1</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>74642</v>
+        <v>151526</v>
       </c>
       <c r="B370" t="n">
         <v>1</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>121861</v>
+        <v>3016</v>
       </c>
       <c r="B371" t="n">
         <v>1</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>15989</v>
+        <v>5858</v>
       </c>
       <c r="B372" t="n">
         <v>1</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>24479</v>
+        <v>144417</v>
       </c>
       <c r="B373" t="n">
         <v>1</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>3961</v>
+        <v>44644</v>
       </c>
       <c r="B374" t="n">
         <v>1</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>24822</v>
+        <v>19821</v>
       </c>
       <c r="B375" t="n">
         <v>1</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>44038</v>
+        <v>96159</v>
       </c>
       <c r="B376" t="n">
         <v>1</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>110405</v>
+        <v>145827</v>
       </c>
       <c r="B377" t="n">
         <v>1</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>118798</v>
+        <v>993</v>
       </c>
       <c r="B378" t="n">
         <v>1</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>105614</v>
+        <v>77357</v>
       </c>
       <c r="B379" t="n">
         <v>1</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>152384</v>
+        <v>114677</v>
       </c>
       <c r="B380" t="n">
         <v>1</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>7385</v>
+        <v>81592</v>
       </c>
       <c r="B381" t="n">
         <v>1</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>157726</v>
+        <v>150678</v>
       </c>
       <c r="B382" t="n">
         <v>1</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>83671</v>
+        <v>107835</v>
       </c>
       <c r="B383" t="n">
         <v>1</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>69255</v>
+        <v>108054</v>
       </c>
       <c r="B384" t="n">
         <v>1</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>138253</v>
+        <v>87281</v>
       </c>
       <c r="B385" t="n">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>32297</v>
+        <v>144438</v>
       </c>
       <c r="B386" t="n">
         <v>1</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>28101</v>
+        <v>22532</v>
       </c>
       <c r="B387" t="n">
         <v>1</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>51106</v>
+        <v>41858</v>
       </c>
       <c r="B388" t="n">
         <v>1</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>19193</v>
+        <v>59667</v>
       </c>
       <c r="B389" t="n">
         <v>1</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>97161</v>
+        <v>125649</v>
       </c>
       <c r="B390" t="n">
         <v>1</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>96749</v>
+        <v>113747</v>
       </c>
       <c r="B391" t="n">
         <v>1</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>71147</v>
+        <v>122490</v>
       </c>
       <c r="B392" t="n">
         <v>1</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>155389</v>
+        <v>112252</v>
       </c>
       <c r="B393" t="n">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>28620</v>
+        <v>101978</v>
       </c>
       <c r="B394" t="n">
         <v>1</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>54837</v>
+        <v>52638</v>
       </c>
       <c r="B395" t="n">
         <v>1</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>76585</v>
+        <v>31867</v>
       </c>
       <c r="B396" t="n">
         <v>1</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>38962</v>
+        <v>114197</v>
       </c>
       <c r="B397" t="n">
         <v>1</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>52640</v>
+        <v>81341</v>
       </c>
       <c r="B398" t="n">
         <v>1</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>68394</v>
+        <v>44067</v>
       </c>
       <c r="B399" t="n">
         <v>1</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>142491</v>
+        <v>117552</v>
       </c>
       <c r="B400" t="n">
         <v>1</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>28907</v>
+        <v>19336</v>
       </c>
       <c r="B401" t="n">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>170</v>
+        <v>55631</v>
       </c>
       <c r="B402" t="n">
         <v>1</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>154109</v>
+        <v>21010</v>
       </c>
       <c r="B403" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>14984</v>
+        <v>16514</v>
       </c>
       <c r="B404" t="n">
         <v>1</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>21529</v>
+        <v>140050</v>
       </c>
       <c r="B405" t="n">
         <v>1</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>119746</v>
+        <v>132877</v>
       </c>
       <c r="B406" t="n">
         <v>1</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>31070</v>
+        <v>15646</v>
       </c>
       <c r="B407" t="n">
         <v>1</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>20087</v>
+        <v>23674</v>
       </c>
       <c r="B408" t="n">
         <v>1</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>157068</v>
+        <v>95169</v>
       </c>
       <c r="B409" t="n">
         <v>1</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>48322</v>
+        <v>7256</v>
       </c>
       <c r="B410" t="n">
         <v>1</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>110743</v>
+        <v>136996</v>
       </c>
       <c r="B411" t="n">
         <v>1</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>56101</v>
+        <v>129879</v>
       </c>
       <c r="B412" t="n">
         <v>1</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>29580</v>
+        <v>57394</v>
       </c>
       <c r="B413" t="n">
         <v>1</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>32377</v>
+        <v>143341</v>
       </c>
       <c r="B414" t="n">
         <v>1</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>62984</v>
+        <v>28305</v>
       </c>
       <c r="B415" t="n">
         <v>1</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>11642</v>
+        <v>143668</v>
       </c>
       <c r="B416" t="n">
         <v>1</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>64801</v>
+        <v>77273</v>
       </c>
       <c r="B417" t="n">
         <v>1</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>23942</v>
+        <v>74702</v>
       </c>
       <c r="B418" t="n">
         <v>1</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>64305</v>
+        <v>51382</v>
       </c>
       <c r="B419" t="n">
         <v>1</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>113801</v>
+        <v>128428</v>
       </c>
       <c r="B420" t="n">
         <v>1</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>25864</v>
+        <v>142228</v>
       </c>
       <c r="B421" t="n">
         <v>1</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>102402</v>
+        <v>13485</v>
       </c>
       <c r="B422" t="n">
         <v>1</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>157441</v>
+        <v>68399</v>
       </c>
       <c r="B423" t="n">
         <v>1</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>50890</v>
+        <v>155757</v>
       </c>
       <c r="B424" t="n">
         <v>1</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>9555</v>
+        <v>37206</v>
       </c>
       <c r="B425" t="n">
         <v>1</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>107701</v>
+        <v>75144</v>
       </c>
       <c r="B426" t="n">
         <v>1</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>50547</v>
+        <v>93126</v>
       </c>
       <c r="B427" t="n">
         <v>1</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>3016</v>
+        <v>46403</v>
       </c>
       <c r="B428" t="n">
         <v>1</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>5858</v>
+        <v>99113</v>
       </c>
       <c r="B429" t="n">
         <v>1</v>
@@ -5155,7 +5155,7 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>144417</v>
+        <v>142878</v>
       </c>
       <c r="B430" t="n">
         <v>1</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>147829</v>
+        <v>35756</v>
       </c>
       <c r="B431" t="n">
         <v>1</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>44644</v>
+        <v>150389</v>
       </c>
       <c r="B432" t="n">
         <v>1</v>
@@ -5188,7 +5188,7 @@
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>90287</v>
+        <v>20121</v>
       </c>
       <c r="B433" t="n">
         <v>1</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>145827</v>
+        <v>90878</v>
       </c>
       <c r="B434" t="n">
         <v>1</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>993</v>
+        <v>3785</v>
       </c>
       <c r="B435" t="n">
         <v>1</v>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>77357</v>
+        <v>26322</v>
       </c>
       <c r="B436" t="n">
         <v>1</v>
@@ -5232,7 +5232,7 @@
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>114677</v>
+        <v>85477</v>
       </c>
       <c r="B437" t="n">
         <v>1</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>81592</v>
+        <v>100194</v>
       </c>
       <c r="B438" t="n">
         <v>1</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>3565</v>
+        <v>131877</v>
       </c>
       <c r="B439" t="n">
         <v>1</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>107835</v>
+        <v>117859</v>
       </c>
       <c r="B440" t="n">
         <v>1</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>108054</v>
+        <v>66021</v>
       </c>
       <c r="B441" t="n">
         <v>1</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>87281</v>
+        <v>102551</v>
       </c>
       <c r="B442" t="n">
         <v>1</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>144438</v>
+        <v>124471</v>
       </c>
       <c r="B443" t="n">
         <v>1</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>41858</v>
+        <v>6945</v>
       </c>
       <c r="B444" t="n">
         <v>1</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>59667</v>
+        <v>124017</v>
       </c>
       <c r="B445" t="n">
         <v>1</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>125649</v>
+        <v>129249</v>
       </c>
       <c r="B446" t="n">
         <v>1</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>113747</v>
+        <v>70594</v>
       </c>
       <c r="B447" t="n">
         <v>1</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>146619</v>
+        <v>122545</v>
       </c>
       <c r="B448" t="n">
         <v>1</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>31867</v>
+        <v>141837</v>
       </c>
       <c r="B449" t="n">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>114197</v>
+        <v>13075</v>
       </c>
       <c r="B450" t="n">
         <v>1</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>44067</v>
+        <v>120747</v>
       </c>
       <c r="B451" t="n">
         <v>1</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>117552</v>
+        <v>40034</v>
       </c>
       <c r="B452" t="n">
         <v>1</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>60860</v>
+        <v>127624</v>
       </c>
       <c r="B453" t="n">
         <v>1</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>19336</v>
+        <v>95760</v>
       </c>
       <c r="B454" t="n">
         <v>1</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>55631</v>
+        <v>21570</v>
       </c>
       <c r="B455" t="n">
         <v>1</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>10044</v>
+        <v>46193</v>
       </c>
       <c r="B456" t="n">
         <v>1</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>21010</v>
+        <v>121191</v>
       </c>
       <c r="B457" t="n">
         <v>1</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>22428</v>
+        <v>125671</v>
       </c>
       <c r="B458" t="n">
         <v>1</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>16514</v>
+        <v>128309</v>
       </c>
       <c r="B459" t="n">
         <v>1</v>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>140050</v>
+        <v>110675</v>
       </c>
       <c r="B460" t="n">
         <v>1</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>132877</v>
+        <v>157990</v>
       </c>
       <c r="B461" t="n">
         <v>1</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>15646</v>
+        <v>3109</v>
       </c>
       <c r="B462" t="n">
         <v>1</v>
@@ -5518,7 +5518,7 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>23674</v>
+        <v>41168</v>
       </c>
       <c r="B463" t="n">
         <v>1</v>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>95169</v>
+        <v>20132</v>
       </c>
       <c r="B464" t="n">
         <v>1</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>7256</v>
+        <v>105491</v>
       </c>
       <c r="B465" t="n">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>129879</v>
+        <v>122206</v>
       </c>
       <c r="B466" t="n">
         <v>1</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>57394</v>
+        <v>133583</v>
       </c>
       <c r="B467" t="n">
         <v>1</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>143341</v>
+        <v>149579</v>
       </c>
       <c r="B468" t="n">
         <v>1</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>28305</v>
+        <v>25313</v>
       </c>
       <c r="B469" t="n">
         <v>1</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>77273</v>
+        <v>24011</v>
       </c>
       <c r="B470" t="n">
         <v>1</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>74702</v>
+        <v>42125</v>
       </c>
       <c r="B471" t="n">
         <v>1</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>51382</v>
+        <v>18042</v>
       </c>
       <c r="B472" t="n">
         <v>1</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>128428</v>
+        <v>6228</v>
       </c>
       <c r="B473" t="n">
         <v>1</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>142228</v>
+        <v>38548</v>
       </c>
       <c r="B474" t="n">
         <v>1</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>145209</v>
+        <v>51321</v>
       </c>
       <c r="B475" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>13485</v>
+        <v>102133</v>
       </c>
       <c r="B476" t="n">
         <v>1</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>68399</v>
+        <v>25460</v>
       </c>
       <c r="B477" t="n">
         <v>1</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>37206</v>
+        <v>70087</v>
       </c>
       <c r="B478" t="n">
         <v>1</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>75144</v>
+        <v>77951</v>
       </c>
       <c r="B479" t="n">
         <v>1</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>93126</v>
+        <v>153105</v>
       </c>
       <c r="B480" t="n">
         <v>1</v>
@@ -5716,7 +5716,7 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>107659</v>
+        <v>157605</v>
       </c>
       <c r="B481" t="n">
         <v>1</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>76202</v>
+        <v>79543</v>
       </c>
       <c r="B482" t="n">
         <v>1</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>46403</v>
+        <v>23774</v>
       </c>
       <c r="B483" t="n">
         <v>1</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>60008</v>
+        <v>43278</v>
       </c>
       <c r="B484" t="n">
         <v>1</v>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>99113</v>
+        <v>71365</v>
       </c>
       <c r="B485" t="n">
         <v>1</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>142878</v>
+        <v>136536</v>
       </c>
       <c r="B486" t="n">
         <v>1</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>35756</v>
+        <v>44682</v>
       </c>
       <c r="B487" t="n">
         <v>1</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>150389</v>
+        <v>55511</v>
       </c>
       <c r="B488" t="n">
         <v>1</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>43646</v>
+        <v>23693</v>
       </c>
       <c r="B489" t="n">
         <v>1</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>3785</v>
+        <v>27363</v>
       </c>
       <c r="B490" t="n">
         <v>1</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>26322</v>
+        <v>32887</v>
       </c>
       <c r="B491" t="n">
         <v>1</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>100194</v>
+        <v>124637</v>
       </c>
       <c r="B492" t="n">
         <v>1</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>131877</v>
+        <v>105404</v>
       </c>
       <c r="B493" t="n">
         <v>1</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>117859</v>
+        <v>23955</v>
       </c>
       <c r="B494" t="n">
         <v>1</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>66021</v>
+        <v>60881</v>
       </c>
       <c r="B495" t="n">
         <v>1</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>124471</v>
+        <v>121089</v>
       </c>
       <c r="B496" t="n">
         <v>1</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>6945</v>
+        <v>60211</v>
       </c>
       <c r="B497" t="n">
         <v>1</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>124017</v>
+        <v>30358</v>
       </c>
       <c r="B498" t="n">
         <v>1</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>129249</v>
+        <v>13473</v>
       </c>
       <c r="B499" t="n">
         <v>1</v>
@@ -5925,7 +5925,7 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>70594</v>
+        <v>113781</v>
       </c>
       <c r="B500" t="n">
         <v>1</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>122545</v>
+        <v>39823</v>
       </c>
       <c r="B501" t="n">
         <v>1</v>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>141837</v>
+        <v>48698</v>
       </c>
       <c r="B502" t="n">
         <v>1</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>13075</v>
+        <v>150772</v>
       </c>
       <c r="B503" t="n">
         <v>1</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>120747</v>
+        <v>9961</v>
       </c>
       <c r="B504" t="n">
         <v>1</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>95760</v>
+        <v>139878</v>
       </c>
       <c r="B505" t="n">
         <v>1</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>46193</v>
+        <v>54462</v>
       </c>
       <c r="B506" t="n">
         <v>1</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>121191</v>
+        <v>112990</v>
       </c>
       <c r="B507" t="n">
         <v>1</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>125671</v>
+        <v>29636</v>
       </c>
       <c r="B508" t="n">
         <v>1</v>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>128309</v>
+        <v>91252</v>
       </c>
       <c r="B509" t="n">
         <v>1</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>41705</v>
+        <v>35692</v>
       </c>
       <c r="B510" t="n">
         <v>1</v>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>110675</v>
+        <v>154273</v>
       </c>
       <c r="B511" t="n">
         <v>1</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>157990</v>
+        <v>52328</v>
       </c>
       <c r="B512" t="n">
         <v>1</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>3109</v>
+        <v>99998</v>
       </c>
       <c r="B513" t="n">
         <v>1</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>41168</v>
+        <v>66241</v>
       </c>
       <c r="B514" t="n">
         <v>1</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>49873</v>
+        <v>33364</v>
       </c>
       <c r="B515" t="n">
         <v>1</v>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>20132</v>
+        <v>52043</v>
       </c>
       <c r="B516" t="n">
         <v>1</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>10385</v>
+        <v>14714</v>
       </c>
       <c r="B517" t="n">
         <v>1</v>
@@ -6123,7 +6123,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>105491</v>
+        <v>132049</v>
       </c>
       <c r="B518" t="n">
         <v>1</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>150023</v>
+        <v>128593</v>
       </c>
       <c r="B519" t="n">
         <v>1</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>122206</v>
+        <v>115314</v>
       </c>
       <c r="B520" t="n">
         <v>1</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>38403</v>
+        <v>101361</v>
       </c>
       <c r="B521" t="n">
         <v>1</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>94508</v>
+        <v>124915</v>
       </c>
       <c r="B522" t="n">
         <v>1</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>25313</v>
+        <v>91880</v>
       </c>
       <c r="B523" t="n">
         <v>1</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>42125</v>
+        <v>33475</v>
       </c>
       <c r="B524" t="n">
         <v>1</v>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>38548</v>
+        <v>70579</v>
       </c>
       <c r="B525" t="n">
         <v>1</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>119570</v>
+        <v>52719</v>
       </c>
       <c r="B526" t="n">
         <v>1</v>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>63648</v>
+        <v>136808</v>
       </c>
       <c r="B527" t="n">
         <v>1</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>107898</v>
+        <v>151270</v>
       </c>
       <c r="B528" t="n">
         <v>1</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>102133</v>
+        <v>148490</v>
       </c>
       <c r="B529" t="n">
         <v>1</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>7925</v>
+        <v>53848</v>
       </c>
       <c r="B530" t="n">
         <v>1</v>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>25460</v>
+        <v>29589</v>
       </c>
       <c r="B531" t="n">
         <v>1</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>12390</v>
+        <v>92682</v>
       </c>
       <c r="B532" t="n">
         <v>1</v>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>108555</v>
+        <v>108935</v>
       </c>
       <c r="B533" t="n">
         <v>1</v>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>70087</v>
+        <v>111323</v>
       </c>
       <c r="B534" t="n">
         <v>1</v>
@@ -6310,7 +6310,7 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>77951</v>
+        <v>70165</v>
       </c>
       <c r="B535" t="n">
         <v>1</v>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>142740</v>
+        <v>22036</v>
       </c>
       <c r="B536" t="n">
         <v>1</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>91356</v>
+        <v>61522</v>
       </c>
       <c r="B537" t="n">
         <v>1</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>153105</v>
+        <v>73140</v>
       </c>
       <c r="B538" t="n">
         <v>1</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>9637</v>
+        <v>122350</v>
       </c>
       <c r="B539" t="n">
         <v>1</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>157605</v>
+        <v>141445</v>
       </c>
       <c r="B540" t="n">
         <v>1</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>67456</v>
+        <v>48501</v>
       </c>
       <c r="B541" t="n">
         <v>1</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>79543</v>
+        <v>16268</v>
       </c>
       <c r="B542" t="n">
         <v>1</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>23774</v>
+        <v>86560</v>
       </c>
       <c r="B543" t="n">
         <v>1</v>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>43278</v>
+        <v>30431</v>
       </c>
       <c r="B544" t="n">
         <v>1</v>
@@ -6420,7 +6420,7 @@
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>53346</v>
+        <v>123983</v>
       </c>
       <c r="B545" t="n">
         <v>1</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>146268</v>
+        <v>73091</v>
       </c>
       <c r="B546" t="n">
         <v>1</v>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>71365</v>
+        <v>110657</v>
       </c>
       <c r="B547" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>136536</v>
+        <v>125485</v>
       </c>
       <c r="B548" t="n">
         <v>1</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>124067</v>
+        <v>68776</v>
       </c>
       <c r="B549" t="n">
         <v>1</v>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>44682</v>
+        <v>85122</v>
       </c>
       <c r="B550" t="n">
         <v>1</v>
@@ -6486,7 +6486,7 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>155480</v>
+        <v>114972</v>
       </c>
       <c r="B551" t="n">
         <v>1</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>5121</v>
+        <v>71834</v>
       </c>
       <c r="B552" t="n">
         <v>1</v>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>132652</v>
+        <v>15740</v>
       </c>
       <c r="B553" t="n">
         <v>1</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>103352</v>
+        <v>5331</v>
       </c>
       <c r="B554" t="n">
         <v>1</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>99414</v>
+        <v>115943</v>
       </c>
       <c r="B555" t="n">
         <v>1</v>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>32887</v>
+        <v>42470</v>
       </c>
       <c r="B556" t="n">
         <v>1</v>
@@ -6552,7 +6552,7 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>124637</v>
+        <v>2850</v>
       </c>
       <c r="B557" t="n">
         <v>1</v>
@@ -6563,7 +6563,7 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>105404</v>
+        <v>151436</v>
       </c>
       <c r="B558" t="n">
         <v>1</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>23955</v>
+        <v>138922</v>
       </c>
       <c r="B559" t="n">
         <v>1</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>60881</v>
+        <v>134807</v>
       </c>
       <c r="B560" t="n">
         <v>1</v>
@@ -6596,7 +6596,7 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>60211</v>
+        <v>124040</v>
       </c>
       <c r="B561" t="n">
         <v>1</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>22179</v>
+        <v>99556</v>
       </c>
       <c r="B562" t="n">
         <v>1</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>99053</v>
+        <v>141927</v>
       </c>
       <c r="B563" t="n">
         <v>1</v>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>5454</v>
+        <v>154257</v>
       </c>
       <c r="B564" t="n">
         <v>1</v>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>30358</v>
+        <v>6621</v>
       </c>
       <c r="B565" t="n">
         <v>1</v>
@@ -6651,7 +6651,7 @@
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>13473</v>
+        <v>45780</v>
       </c>
       <c r="B566" t="n">
         <v>1</v>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>113781</v>
+        <v>21197</v>
       </c>
       <c r="B567" t="n">
         <v>1</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>39823</v>
+        <v>92843</v>
       </c>
       <c r="B568" t="n">
         <v>1</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>48698</v>
+        <v>107244</v>
       </c>
       <c r="B569" t="n">
         <v>1</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>150772</v>
+        <v>121596</v>
       </c>
       <c r="B570" t="n">
         <v>1</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>9961</v>
+        <v>11050</v>
       </c>
       <c r="B571" t="n">
         <v>1</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>6144</v>
+        <v>19740</v>
       </c>
       <c r="B572" t="n">
         <v>1</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>139315</v>
+        <v>77593</v>
       </c>
       <c r="B573" t="n">
         <v>1</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>54462</v>
+        <v>106454</v>
       </c>
       <c r="B574" t="n">
         <v>1</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>112990</v>
+        <v>16898</v>
       </c>
       <c r="B575" t="n">
         <v>1</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>45327</v>
+        <v>119335</v>
       </c>
       <c r="B576" t="n">
         <v>1</v>
@@ -6772,7 +6772,7 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>11067</v>
+        <v>53749</v>
       </c>
       <c r="B577" t="n">
         <v>1</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>91252</v>
+        <v>98289</v>
       </c>
       <c r="B578" t="n">
         <v>1</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>35692</v>
+        <v>88190</v>
       </c>
       <c r="B579" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>154273</v>
+        <v>72738</v>
       </c>
       <c r="B580" t="n">
         <v>1</v>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>52328</v>
+        <v>9883</v>
       </c>
       <c r="B581" t="n">
         <v>1</v>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>66241</v>
+        <v>10710</v>
       </c>
       <c r="B582" t="n">
         <v>1</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>19801</v>
+        <v>38370</v>
       </c>
       <c r="B583" t="n">
         <v>1</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>33364</v>
+        <v>88379</v>
       </c>
       <c r="B584" t="n">
         <v>1</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>100561</v>
+        <v>129812</v>
       </c>
       <c r="B585" t="n">
         <v>1</v>
@@ -6871,7 +6871,7 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>52043</v>
+        <v>157337</v>
       </c>
       <c r="B586" t="n">
         <v>1</v>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>14714</v>
+        <v>83333</v>
       </c>
       <c r="B587" t="n">
         <v>1</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>132049</v>
+        <v>55895</v>
       </c>
       <c r="B588" t="n">
         <v>1</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>128593</v>
+        <v>28674</v>
       </c>
       <c r="B589" t="n">
         <v>1</v>
@@ -6915,7 +6915,7 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>115314</v>
+        <v>28201</v>
       </c>
       <c r="B590" t="n">
         <v>1</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>101361</v>
+        <v>102631</v>
       </c>
       <c r="B591" t="n">
         <v>1</v>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>33475</v>
+        <v>10074</v>
       </c>
       <c r="B592" t="n">
         <v>1</v>
@@ -6948,7 +6948,7 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>147209</v>
+        <v>13697</v>
       </c>
       <c r="B593" t="n">
         <v>1</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>70579</v>
+        <v>28174</v>
       </c>
       <c r="B594" t="n">
         <v>1</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>52719</v>
+        <v>4883</v>
       </c>
       <c r="B595" t="n">
         <v>1</v>
@@ -6981,7 +6981,7 @@
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>136808</v>
+        <v>144980</v>
       </c>
       <c r="B596" t="n">
         <v>1</v>
@@ -6992,7 +6992,7 @@
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>151270</v>
+        <v>25875</v>
       </c>
       <c r="B597" t="n">
         <v>1</v>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>148490</v>
+        <v>101650</v>
       </c>
       <c r="B598" t="n">
         <v>1</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>94953</v>
+        <v>126897</v>
       </c>
       <c r="B599" t="n">
         <v>1</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>73786</v>
+        <v>21299</v>
       </c>
       <c r="B600" t="n">
         <v>1</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>29589</v>
+        <v>113940</v>
       </c>
       <c r="B601" t="n">
         <v>1</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>32592</v>
+        <v>100222</v>
       </c>
       <c r="B602" t="n">
         <v>1</v>
@@ -7058,7 +7058,7 @@
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>92682</v>
+        <v>110708</v>
       </c>
       <c r="B603" t="n">
         <v>1</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>115417</v>
+        <v>21272</v>
       </c>
       <c r="B604" t="n">
         <v>1</v>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>140695</v>
+        <v>30182</v>
       </c>
       <c r="B605" t="n">
         <v>1</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>111323</v>
+        <v>105001</v>
       </c>
       <c r="B606" t="n">
         <v>1</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>22036</v>
+        <v>120810</v>
       </c>
       <c r="B607" t="n">
         <v>1</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>92228</v>
+        <v>41202</v>
       </c>
       <c r="B608" t="n">
         <v>1</v>
@@ -7124,7 +7124,7 @@
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>61522</v>
+        <v>81885</v>
       </c>
       <c r="B609" t="n">
         <v>1</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>73140</v>
+        <v>71092</v>
       </c>
       <c r="B610" t="n">
         <v>1</v>
@@ -7146,7 +7146,7 @@
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>122350</v>
+        <v>7283</v>
       </c>
       <c r="B611" t="n">
         <v>1</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>139912</v>
+        <v>109377</v>
       </c>
       <c r="B612" t="n">
         <v>1</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>48501</v>
+        <v>141394</v>
       </c>
       <c r="B613" t="n">
         <v>1</v>
@@ -7179,7 +7179,7 @@
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>16268</v>
+        <v>23292</v>
       </c>
       <c r="B614" t="n">
         <v>1</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>86560</v>
+        <v>18600</v>
       </c>
       <c r="B615" t="n">
         <v>1</v>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>30431</v>
+        <v>52095</v>
       </c>
       <c r="B616" t="n">
         <v>1</v>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>5072</v>
+        <v>19556</v>
       </c>
       <c r="B617" t="n">
         <v>1</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>114668</v>
+        <v>89120</v>
       </c>
       <c r="B618" t="n">
         <v>1</v>
@@ -7234,7 +7234,7 @@
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>121458</v>
+        <v>24105</v>
       </c>
       <c r="B619" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>123983</v>
+        <v>16561</v>
       </c>
       <c r="B620" t="n">
         <v>1</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>73091</v>
+        <v>44907</v>
       </c>
       <c r="B621" t="n">
         <v>1</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>125032</v>
+        <v>50305</v>
       </c>
       <c r="B622" t="n">
         <v>1</v>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>110657</v>
+        <v>148051</v>
       </c>
       <c r="B623" t="n">
         <v>1</v>
@@ -7289,7 +7289,7 @@
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>134558</v>
+        <v>7418</v>
       </c>
       <c r="B624" t="n">
         <v>1</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>125485</v>
+        <v>59045</v>
       </c>
       <c r="B625" t="n">
         <v>1</v>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>85384</v>
+        <v>44030</v>
       </c>
       <c r="B626" t="n">
         <v>1</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>118805</v>
+        <v>150073</v>
       </c>
       <c r="B627" t="n">
         <v>1</v>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>85122</v>
+        <v>28685</v>
       </c>
       <c r="B628" t="n">
         <v>1</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>71834</v>
+        <v>146206</v>
       </c>
       <c r="B629" t="n">
         <v>1</v>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>15740</v>
+        <v>47171</v>
       </c>
       <c r="B630" t="n">
         <v>1</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>5331</v>
+        <v>112930</v>
       </c>
       <c r="B631" t="n">
         <v>1</v>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>115943</v>
+        <v>29769</v>
       </c>
       <c r="B632" t="n">
         <v>1</v>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>53180</v>
+        <v>98016</v>
       </c>
       <c r="B633" t="n">
         <v>1</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>42470</v>
+        <v>16063</v>
       </c>
       <c r="B634" t="n">
         <v>1</v>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>41932</v>
+        <v>23270</v>
       </c>
       <c r="B635" t="n">
         <v>1</v>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>151279</v>
+        <v>28782</v>
       </c>
       <c r="B636" t="n">
         <v>1</v>
@@ -7432,7 +7432,7 @@
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>118456</v>
+        <v>143778</v>
       </c>
       <c r="B637" t="n">
         <v>1</v>
@@ -7443,7 +7443,7 @@
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>81247</v>
+        <v>87325</v>
       </c>
       <c r="B638" t="n">
         <v>1</v>
@@ -7454,7 +7454,7 @@
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>43597</v>
+        <v>104994</v>
       </c>
       <c r="B639" t="n">
         <v>1</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>123953</v>
+        <v>128693</v>
       </c>
       <c r="B640" t="n">
         <v>1</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>151436</v>
+        <v>115960</v>
       </c>
       <c r="B641" t="n">
         <v>1</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>87193</v>
+        <v>141107</v>
       </c>
       <c r="B642" t="n">
         <v>1</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>138922</v>
+        <v>78924</v>
       </c>
       <c r="B643" t="n">
         <v>1</v>
@@ -7509,7 +7509,7 @@
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>134807</v>
+        <v>146589</v>
       </c>
       <c r="B644" t="n">
         <v>1</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>124040</v>
+        <v>108</v>
       </c>
       <c r="B645" t="n">
         <v>1</v>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>15143</v>
+        <v>14886</v>
       </c>
       <c r="B646" t="n">
         <v>1</v>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>99556</v>
+        <v>21096</v>
       </c>
       <c r="B647" t="n">
         <v>1</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>141927</v>
+        <v>87953</v>
       </c>
       <c r="B648" t="n">
         <v>1</v>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>154257</v>
+        <v>16047</v>
       </c>
       <c r="B649" t="n">
         <v>1</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>6621</v>
+        <v>40808</v>
       </c>
       <c r="B650" t="n">
         <v>1</v>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>64643</v>
+        <v>153607</v>
       </c>
       <c r="B651" t="n">
         <v>1</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>45780</v>
+        <v>83809</v>
       </c>
       <c r="B652" t="n">
         <v>1</v>
@@ -7608,7 +7608,7 @@
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>21197</v>
+        <v>11656</v>
       </c>
       <c r="B653" t="n">
         <v>1</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>92843</v>
+        <v>129727</v>
       </c>
       <c r="B654" t="n">
         <v>1</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>23097</v>
+        <v>83087</v>
       </c>
       <c r="B655" t="n">
         <v>1</v>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>107244</v>
+        <v>86091</v>
       </c>
       <c r="B656" t="n">
         <v>1</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>121596</v>
+        <v>131374</v>
       </c>
       <c r="B657" t="n">
         <v>1</v>
@@ -7663,7 +7663,7 @@
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>11050</v>
+        <v>54980</v>
       </c>
       <c r="B658" t="n">
         <v>1</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>86597</v>
+        <v>82842</v>
       </c>
       <c r="B659" t="n">
         <v>1</v>
@@ -7685,7 +7685,7 @@
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>19740</v>
+        <v>90709</v>
       </c>
       <c r="B660" t="n">
         <v>1</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>77593</v>
+        <v>66584</v>
       </c>
       <c r="B661" t="n">
         <v>1</v>
@@ -7707,7 +7707,7 @@
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>106454</v>
+        <v>74248</v>
       </c>
       <c r="B662" t="n">
         <v>1</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>16898</v>
+        <v>145473</v>
       </c>
       <c r="B663" t="n">
         <v>1</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>119335</v>
+        <v>149061</v>
       </c>
       <c r="B664" t="n">
         <v>1</v>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>157733</v>
+        <v>87729</v>
       </c>
       <c r="B665" t="n">
         <v>1</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>53749</v>
+        <v>111884</v>
       </c>
       <c r="B666" t="n">
         <v>1</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>88190</v>
+        <v>4196</v>
       </c>
       <c r="B667" t="n">
         <v>1</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>47818</v>
+        <v>131342</v>
       </c>
       <c r="B668" t="n">
         <v>1</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>10710</v>
+        <v>38589</v>
       </c>
       <c r="B669" t="n">
         <v>1</v>
@@ -7795,7 +7795,7 @@
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>90396</v>
+        <v>27311</v>
       </c>
       <c r="B670" t="n">
         <v>1</v>
@@ -7806,7 +7806,7 @@
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>38370</v>
+        <v>3302</v>
       </c>
       <c r="B671" t="n">
         <v>1</v>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>88379</v>
+        <v>153340</v>
       </c>
       <c r="B672" t="n">
         <v>1</v>
@@ -7828,7 +7828,7 @@
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>130511</v>
+        <v>91534</v>
       </c>
       <c r="B673" t="n">
         <v>1</v>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>129812</v>
+        <v>120250</v>
       </c>
       <c r="B674" t="n">
         <v>1</v>
@@ -7850,7 +7850,7 @@
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>157337</v>
+        <v>86590</v>
       </c>
       <c r="B675" t="n">
         <v>1</v>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>83333</v>
+        <v>99213</v>
       </c>
       <c r="B676" t="n">
         <v>1</v>
@@ -7872,7 +7872,7 @@
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>55895</v>
+        <v>73299</v>
       </c>
       <c r="B677" t="n">
         <v>1</v>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>28674</v>
+        <v>8727</v>
       </c>
       <c r="B678" t="n">
         <v>1</v>
@@ -7894,7 +7894,7 @@
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>28201</v>
+        <v>29605</v>
       </c>
       <c r="B679" t="n">
         <v>1</v>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>126512</v>
+        <v>67696</v>
       </c>
       <c r="B680" t="n">
         <v>1</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>102631</v>
+        <v>49095</v>
       </c>
       <c r="B681" t="n">
         <v>1</v>
@@ -7927,7 +7927,7 @@
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>10074</v>
+        <v>94936</v>
       </c>
       <c r="B682" t="n">
         <v>1</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>52761</v>
+        <v>43131</v>
       </c>
       <c r="B683" t="n">
         <v>1</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>28174</v>
+        <v>26424</v>
       </c>
       <c r="B684" t="n">
         <v>1</v>
@@ -7960,7 +7960,7 @@
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>4883</v>
+        <v>129374</v>
       </c>
       <c r="B685" t="n">
         <v>1</v>
@@ -7971,7 +7971,7 @@
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>45037</v>
+        <v>96274</v>
       </c>
       <c r="B686" t="n">
         <v>1</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>144980</v>
+        <v>141641</v>
       </c>
       <c r="B687" t="n">
         <v>1</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>101650</v>
+        <v>148295</v>
       </c>
       <c r="B688" t="n">
         <v>1</v>
@@ -8004,7 +8004,7 @@
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>126897</v>
+        <v>97233</v>
       </c>
       <c r="B689" t="n">
         <v>1</v>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>21299</v>
+        <v>10390</v>
       </c>
       <c r="B690" t="n">
         <v>1</v>
@@ -8026,7 +8026,7 @@
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>48802</v>
+        <v>74156</v>
       </c>
       <c r="B691" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>100222</v>
+        <v>93138</v>
       </c>
       <c r="B692" t="n">
         <v>1</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>110708</v>
+        <v>90021</v>
       </c>
       <c r="B693" t="n">
         <v>1</v>
@@ -8059,7 +8059,7 @@
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>21272</v>
+        <v>23333</v>
       </c>
       <c r="B694" t="n">
         <v>1</v>
@@ -8070,7 +8070,7 @@
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
-        <v>120810</v>
+        <v>33585</v>
       </c>
       <c r="B695" t="n">
         <v>1</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>41202</v>
+        <v>106447</v>
       </c>
       <c r="B696" t="n">
         <v>1</v>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
-        <v>81885</v>
+        <v>8492</v>
       </c>
       <c r="B697" t="n">
         <v>1</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
-        <v>71092</v>
+        <v>107975</v>
       </c>
       <c r="B698" t="n">
         <v>1</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
-        <v>7283</v>
+        <v>45339</v>
       </c>
       <c r="B699" t="n">
         <v>1</v>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>109377</v>
+        <v>84771</v>
       </c>
       <c r="B700" t="n">
         <v>1</v>
@@ -8136,7 +8136,7 @@
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>54973</v>
+        <v>96933</v>
       </c>
       <c r="B701" t="n">
         <v>1</v>
@@ -8147,7 +8147,7 @@
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>141394</v>
+        <v>650</v>
       </c>
       <c r="B702" t="n">
         <v>1</v>
@@ -8158,7 +8158,7 @@
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
-        <v>47420</v>
+        <v>145987</v>
       </c>
       <c r="B703" t="n">
         <v>1</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
-        <v>74401</v>
+        <v>122077</v>
       </c>
       <c r="B704" t="n">
         <v>1</v>
@@ -8180,7 +8180,7 @@
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
-        <v>23292</v>
+        <v>114979</v>
       </c>
       <c r="B705" t="n">
         <v>1</v>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
-        <v>18600</v>
+        <v>9760</v>
       </c>
       <c r="B706" t="n">
         <v>1</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
-        <v>52095</v>
+        <v>92597</v>
       </c>
       <c r="B707" t="n">
         <v>1</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
-        <v>152385</v>
+        <v>109787</v>
       </c>
       <c r="B708" t="n">
         <v>1</v>
@@ -8224,7 +8224,7 @@
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
-        <v>89120</v>
+        <v>99451</v>
       </c>
       <c r="B709" t="n">
         <v>1</v>
@@ -8235,7 +8235,7 @@
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
-        <v>16561</v>
+        <v>3543</v>
       </c>
       <c r="B710" t="n">
         <v>1</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
-        <v>148051</v>
+        <v>67844</v>
       </c>
       <c r="B711" t="n">
         <v>1</v>
@@ -8257,7 +8257,7 @@
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
-        <v>93035</v>
+        <v>98338</v>
       </c>
       <c r="B712" t="n">
         <v>1</v>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
-        <v>59045</v>
+        <v>136948</v>
       </c>
       <c r="B713" t="n">
         <v>1</v>
@@ -8279,7 +8279,7 @@
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
-        <v>44030</v>
+        <v>34011</v>
       </c>
       <c r="B714" t="n">
         <v>1</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
-        <v>150073</v>
+        <v>116319</v>
       </c>
       <c r="B715" t="n">
         <v>1</v>
@@ -8301,7 +8301,7 @@
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
-        <v>58704</v>
+        <v>46600</v>
       </c>
       <c r="B716" t="n">
         <v>1</v>
@@ -8312,1145 +8312,12 @@
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
-        <v>15492</v>
+        <v>103580</v>
       </c>
       <c r="B717" t="n">
         <v>1</v>
       </c>
       <c r="C717" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" s="1" t="n">
-        <v>28685</v>
-      </c>
-      <c r="B718" t="n">
-        <v>1</v>
-      </c>
-      <c r="C718" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" s="1" t="n">
-        <v>146206</v>
-      </c>
-      <c r="B719" t="n">
-        <v>1</v>
-      </c>
-      <c r="C719" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" s="1" t="n">
-        <v>47171</v>
-      </c>
-      <c r="B720" t="n">
-        <v>1</v>
-      </c>
-      <c r="C720" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" s="1" t="n">
-        <v>112930</v>
-      </c>
-      <c r="B721" t="n">
-        <v>1</v>
-      </c>
-      <c r="C721" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" s="1" t="n">
-        <v>29769</v>
-      </c>
-      <c r="B722" t="n">
-        <v>1</v>
-      </c>
-      <c r="C722" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" s="1" t="n">
-        <v>98016</v>
-      </c>
-      <c r="B723" t="n">
-        <v>1</v>
-      </c>
-      <c r="C723" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" s="1" t="n">
-        <v>16063</v>
-      </c>
-      <c r="B724" t="n">
-        <v>1</v>
-      </c>
-      <c r="C724" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" s="1" t="n">
-        <v>92871</v>
-      </c>
-      <c r="B725" t="n">
-        <v>1</v>
-      </c>
-      <c r="C725" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" s="1" t="n">
-        <v>23270</v>
-      </c>
-      <c r="B726" t="n">
-        <v>1</v>
-      </c>
-      <c r="C726" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" s="1" t="n">
-        <v>28782</v>
-      </c>
-      <c r="B727" t="n">
-        <v>1</v>
-      </c>
-      <c r="C727" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" s="1" t="n">
-        <v>87325</v>
-      </c>
-      <c r="B728" t="n">
-        <v>1</v>
-      </c>
-      <c r="C728" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" s="1" t="n">
-        <v>104994</v>
-      </c>
-      <c r="B729" t="n">
-        <v>1</v>
-      </c>
-      <c r="C729" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" s="1" t="n">
-        <v>128693</v>
-      </c>
-      <c r="B730" t="n">
-        <v>1</v>
-      </c>
-      <c r="C730" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" s="1" t="n">
-        <v>52254</v>
-      </c>
-      <c r="B731" t="n">
-        <v>1</v>
-      </c>
-      <c r="C731" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>49349</v>
-      </c>
-      <c r="B732" t="n">
-        <v>1</v>
-      </c>
-      <c r="C732" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>115960</v>
-      </c>
-      <c r="B733" t="n">
-        <v>1</v>
-      </c>
-      <c r="C733" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>78924</v>
-      </c>
-      <c r="B734" t="n">
-        <v>1</v>
-      </c>
-      <c r="C734" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>66036</v>
-      </c>
-      <c r="B735" t="n">
-        <v>1</v>
-      </c>
-      <c r="C735" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B736" t="n">
-        <v>1</v>
-      </c>
-      <c r="C736" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>14886</v>
-      </c>
-      <c r="B737" t="n">
-        <v>1</v>
-      </c>
-      <c r="C737" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" s="1" t="n">
-        <v>69954</v>
-      </c>
-      <c r="B738" t="n">
-        <v>1</v>
-      </c>
-      <c r="C738" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" s="1" t="n">
-        <v>158713</v>
-      </c>
-      <c r="B739" t="n">
-        <v>1</v>
-      </c>
-      <c r="C739" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>87953</v>
-      </c>
-      <c r="B740" t="n">
-        <v>1</v>
-      </c>
-      <c r="C740" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>16047</v>
-      </c>
-      <c r="B741" t="n">
-        <v>1</v>
-      </c>
-      <c r="C741" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" s="1" t="n">
-        <v>40808</v>
-      </c>
-      <c r="B742" t="n">
-        <v>1</v>
-      </c>
-      <c r="C742" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" s="1" t="n">
-        <v>153607</v>
-      </c>
-      <c r="B743" t="n">
-        <v>1</v>
-      </c>
-      <c r="C743" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" s="1" t="n">
-        <v>83809</v>
-      </c>
-      <c r="B744" t="n">
-        <v>1</v>
-      </c>
-      <c r="C744" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" s="1" t="n">
-        <v>115627</v>
-      </c>
-      <c r="B745" t="n">
-        <v>1</v>
-      </c>
-      <c r="C745" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" s="1" t="n">
-        <v>11656</v>
-      </c>
-      <c r="B746" t="n">
-        <v>1</v>
-      </c>
-      <c r="C746" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" s="1" t="n">
-        <v>129727</v>
-      </c>
-      <c r="B747" t="n">
-        <v>1</v>
-      </c>
-      <c r="C747" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" s="1" t="n">
-        <v>32699</v>
-      </c>
-      <c r="B748" t="n">
-        <v>1</v>
-      </c>
-      <c r="C748" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" s="1" t="n">
-        <v>145932</v>
-      </c>
-      <c r="B749" t="n">
-        <v>1</v>
-      </c>
-      <c r="C749" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" s="1" t="n">
-        <v>43158</v>
-      </c>
-      <c r="B750" t="n">
-        <v>1</v>
-      </c>
-      <c r="C750" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" s="1" t="n">
-        <v>83087</v>
-      </c>
-      <c r="B751" t="n">
-        <v>1</v>
-      </c>
-      <c r="C751" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" s="1" t="n">
-        <v>100589</v>
-      </c>
-      <c r="B752" t="n">
-        <v>1</v>
-      </c>
-      <c r="C752" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" s="1" t="n">
-        <v>151258</v>
-      </c>
-      <c r="B753" t="n">
-        <v>1</v>
-      </c>
-      <c r="C753" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" s="1" t="n">
-        <v>131374</v>
-      </c>
-      <c r="B754" t="n">
-        <v>1</v>
-      </c>
-      <c r="C754" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" s="1" t="n">
-        <v>54980</v>
-      </c>
-      <c r="B755" t="n">
-        <v>1</v>
-      </c>
-      <c r="C755" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" s="1" t="n">
-        <v>82842</v>
-      </c>
-      <c r="B756" t="n">
-        <v>1</v>
-      </c>
-      <c r="C756" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" s="1" t="n">
-        <v>116060</v>
-      </c>
-      <c r="B757" t="n">
-        <v>1</v>
-      </c>
-      <c r="C757" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" s="1" t="n">
-        <v>90709</v>
-      </c>
-      <c r="B758" t="n">
-        <v>1</v>
-      </c>
-      <c r="C758" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" s="1" t="n">
-        <v>66584</v>
-      </c>
-      <c r="B759" t="n">
-        <v>1</v>
-      </c>
-      <c r="C759" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" s="1" t="n">
-        <v>74248</v>
-      </c>
-      <c r="B760" t="n">
-        <v>1</v>
-      </c>
-      <c r="C760" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" s="1" t="n">
-        <v>97093</v>
-      </c>
-      <c r="B761" t="n">
-        <v>1</v>
-      </c>
-      <c r="C761" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" s="1" t="n">
-        <v>124198</v>
-      </c>
-      <c r="B762" t="n">
-        <v>1</v>
-      </c>
-      <c r="C762" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" s="1" t="n">
-        <v>145653</v>
-      </c>
-      <c r="B763" t="n">
-        <v>1</v>
-      </c>
-      <c r="C763" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" s="1" t="n">
-        <v>149061</v>
-      </c>
-      <c r="B764" t="n">
-        <v>1</v>
-      </c>
-      <c r="C764" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" s="1" t="n">
-        <v>87729</v>
-      </c>
-      <c r="B765" t="n">
-        <v>1</v>
-      </c>
-      <c r="C765" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" s="1" t="n">
-        <v>137245</v>
-      </c>
-      <c r="B766" t="n">
-        <v>1</v>
-      </c>
-      <c r="C766" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" s="1" t="n">
-        <v>111884</v>
-      </c>
-      <c r="B767" t="n">
-        <v>1</v>
-      </c>
-      <c r="C767" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" s="1" t="n">
-        <v>82500</v>
-      </c>
-      <c r="B768" t="n">
-        <v>1</v>
-      </c>
-      <c r="C768" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" s="1" t="n">
-        <v>4196</v>
-      </c>
-      <c r="B769" t="n">
-        <v>1</v>
-      </c>
-      <c r="C769" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" s="1" t="n">
-        <v>131342</v>
-      </c>
-      <c r="B770" t="n">
-        <v>1</v>
-      </c>
-      <c r="C770" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" s="1" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B771" t="n">
-        <v>1</v>
-      </c>
-      <c r="C771" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" s="1" t="n">
-        <v>38589</v>
-      </c>
-      <c r="B772" t="n">
-        <v>1</v>
-      </c>
-      <c r="C772" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" s="1" t="n">
-        <v>153340</v>
-      </c>
-      <c r="B773" t="n">
-        <v>1</v>
-      </c>
-      <c r="C773" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" s="1" t="n">
-        <v>91534</v>
-      </c>
-      <c r="B774" t="n">
-        <v>1</v>
-      </c>
-      <c r="C774" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" s="1" t="n">
-        <v>90284</v>
-      </c>
-      <c r="B775" t="n">
-        <v>1</v>
-      </c>
-      <c r="C775" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" s="1" t="n">
-        <v>86590</v>
-      </c>
-      <c r="B776" t="n">
-        <v>1</v>
-      </c>
-      <c r="C776" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" s="1" t="n">
-        <v>99213</v>
-      </c>
-      <c r="B777" t="n">
-        <v>1</v>
-      </c>
-      <c r="C777" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" s="1" t="n">
-        <v>73299</v>
-      </c>
-      <c r="B778" t="n">
-        <v>1</v>
-      </c>
-      <c r="C778" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" s="1" t="n">
-        <v>29605</v>
-      </c>
-      <c r="B779" t="n">
-        <v>1</v>
-      </c>
-      <c r="C779" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" s="1" t="n">
-        <v>44148</v>
-      </c>
-      <c r="B780" t="n">
-        <v>1</v>
-      </c>
-      <c r="C780" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" s="1" t="n">
-        <v>94936</v>
-      </c>
-      <c r="B781" t="n">
-        <v>1</v>
-      </c>
-      <c r="C781" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" s="1" t="n">
-        <v>43131</v>
-      </c>
-      <c r="B782" t="n">
-        <v>1</v>
-      </c>
-      <c r="C782" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" s="1" t="n">
-        <v>26424</v>
-      </c>
-      <c r="B783" t="n">
-        <v>1</v>
-      </c>
-      <c r="C783" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" s="1" t="n">
-        <v>129374</v>
-      </c>
-      <c r="B784" t="n">
-        <v>1</v>
-      </c>
-      <c r="C784" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" s="1" t="n">
-        <v>96274</v>
-      </c>
-      <c r="B785" t="n">
-        <v>1</v>
-      </c>
-      <c r="C785" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" s="1" t="n">
-        <v>148295</v>
-      </c>
-      <c r="B786" t="n">
-        <v>1</v>
-      </c>
-      <c r="C786" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" s="1" t="n">
-        <v>65915</v>
-      </c>
-      <c r="B787" t="n">
-        <v>1</v>
-      </c>
-      <c r="C787" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" s="1" t="n">
-        <v>97233</v>
-      </c>
-      <c r="B788" t="n">
-        <v>1</v>
-      </c>
-      <c r="C788" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" s="1" t="n">
-        <v>10390</v>
-      </c>
-      <c r="B789" t="n">
-        <v>1</v>
-      </c>
-      <c r="C789" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" s="1" t="n">
-        <v>37960</v>
-      </c>
-      <c r="B790" t="n">
-        <v>1</v>
-      </c>
-      <c r="C790" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" s="1" t="n">
-        <v>74156</v>
-      </c>
-      <c r="B791" t="n">
-        <v>1</v>
-      </c>
-      <c r="C791" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" s="1" t="n">
-        <v>90021</v>
-      </c>
-      <c r="B792" t="n">
-        <v>1</v>
-      </c>
-      <c r="C792" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" s="1" t="n">
-        <v>23333</v>
-      </c>
-      <c r="B793" t="n">
-        <v>1</v>
-      </c>
-      <c r="C793" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" s="1" t="n">
-        <v>33585</v>
-      </c>
-      <c r="B794" t="n">
-        <v>1</v>
-      </c>
-      <c r="C794" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" s="1" t="n">
-        <v>145845</v>
-      </c>
-      <c r="B795" t="n">
-        <v>1</v>
-      </c>
-      <c r="C795" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" s="1" t="n">
-        <v>60892</v>
-      </c>
-      <c r="B796" t="n">
-        <v>1</v>
-      </c>
-      <c r="C796" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" s="1" t="n">
-        <v>106447</v>
-      </c>
-      <c r="B797" t="n">
-        <v>1</v>
-      </c>
-      <c r="C797" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" s="1" t="n">
-        <v>8492</v>
-      </c>
-      <c r="B798" t="n">
-        <v>1</v>
-      </c>
-      <c r="C798" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" s="1" t="n">
-        <v>107975</v>
-      </c>
-      <c r="B799" t="n">
-        <v>1</v>
-      </c>
-      <c r="C799" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" s="1" t="n">
-        <v>45339</v>
-      </c>
-      <c r="B800" t="n">
-        <v>1</v>
-      </c>
-      <c r="C800" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" s="1" t="n">
-        <v>84771</v>
-      </c>
-      <c r="B801" t="n">
-        <v>1</v>
-      </c>
-      <c r="C801" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" s="1" t="n">
-        <v>151163</v>
-      </c>
-      <c r="B802" t="n">
-        <v>1</v>
-      </c>
-      <c r="C802" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B803" t="n">
-        <v>1</v>
-      </c>
-      <c r="C803" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" s="1" t="n">
-        <v>145987</v>
-      </c>
-      <c r="B804" t="n">
-        <v>1</v>
-      </c>
-      <c r="C804" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" s="1" t="n">
-        <v>122077</v>
-      </c>
-      <c r="B805" t="n">
-        <v>1</v>
-      </c>
-      <c r="C805" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" s="1" t="n">
-        <v>19812</v>
-      </c>
-      <c r="B806" t="n">
-        <v>1</v>
-      </c>
-      <c r="C806" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" s="1" t="n">
-        <v>114979</v>
-      </c>
-      <c r="B807" t="n">
-        <v>1</v>
-      </c>
-      <c r="C807" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" s="1" t="n">
-        <v>9760</v>
-      </c>
-      <c r="B808" t="n">
-        <v>1</v>
-      </c>
-      <c r="C808" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" s="1" t="n">
-        <v>138837</v>
-      </c>
-      <c r="B809" t="n">
-        <v>1</v>
-      </c>
-      <c r="C809" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" s="1" t="n">
-        <v>92597</v>
-      </c>
-      <c r="B810" t="n">
-        <v>1</v>
-      </c>
-      <c r="C810" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" s="1" t="n">
-        <v>109787</v>
-      </c>
-      <c r="B811" t="n">
-        <v>1</v>
-      </c>
-      <c r="C811" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" s="1" t="n">
-        <v>30041</v>
-      </c>
-      <c r="B812" t="n">
-        <v>1</v>
-      </c>
-      <c r="C812" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" s="1" t="n">
-        <v>99451</v>
-      </c>
-      <c r="B813" t="n">
-        <v>1</v>
-      </c>
-      <c r="C813" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" s="1" t="n">
-        <v>3543</v>
-      </c>
-      <c r="B814" t="n">
-        <v>1</v>
-      </c>
-      <c r="C814" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" s="1" t="n">
-        <v>67844</v>
-      </c>
-      <c r="B815" t="n">
-        <v>1</v>
-      </c>
-      <c r="C815" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" s="1" t="n">
-        <v>98338</v>
-      </c>
-      <c r="B816" t="n">
-        <v>1</v>
-      </c>
-      <c r="C816" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" s="1" t="n">
-        <v>136948</v>
-      </c>
-      <c r="B817" t="n">
-        <v>1</v>
-      </c>
-      <c r="C817" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" s="1" t="n">
-        <v>34011</v>
-      </c>
-      <c r="B818" t="n">
-        <v>1</v>
-      </c>
-      <c r="C818" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" s="1" t="n">
-        <v>116319</v>
-      </c>
-      <c r="B819" t="n">
-        <v>1</v>
-      </c>
-      <c r="C819" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" s="1" t="n">
-        <v>46600</v>
-      </c>
-      <c r="B820" t="n">
-        <v>1</v>
-      </c>
-      <c r="C820" t="n">
         <v>0</v>
       </c>
     </row>
